--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,6 +145,15 @@
   </x:si>
   <x:si>
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240332</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1218,7 +1227,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -145,6 +145,15 @@
   </x:si>
   <x:si>
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>2250002</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1227,7 +1236,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -298,6 +298,15 @@
   </x:si>
   <x:si>
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام طارق احمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>ٍSalma Hany Mohamed Azez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شابى اشرف محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaby Ashraf Mohamed Kamel</x:t>
   </x:si>
   <x:si>
     <x:t>1240323</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1149,7 +1158,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1181,7 +1190,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Fluid Mechanics (MCNS202) Location : [14502]14502-30-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -192,6 +192,15 @@
     <x:t>Omar Mustafa Ahmed Al-Sayed Ahmed Khater</x:t>
   </x:si>
   <x:si>
+    <x:t>4250163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى حسني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Hosni</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240180</x:t>
   </x:si>
   <x:si>
@@ -316,6 +325,24 @@
   </x:si>
   <x:si>
     <x:t>Hesham Tarek Ahmed Awad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسن سيد احمد حسن السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassan Sayed Ahmed Hassan El-Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -449,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1414,7 +1441,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1473,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1505,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1537,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1569,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1601,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1633,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1665,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1697,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1729,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1761,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1793,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1825,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1857,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1889,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1921,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45920.7897603356</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1938,102 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45920.7935459838</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -36,7 +36,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -863,7 +866,9 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
         <x:v>45908.4193848727</x:v>
       </x:c>
@@ -888,13 +893,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
         <x:v>45917.3081947569</x:v>
@@ -920,13 +925,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
         <x:v>45917.3133189005</x:v>
@@ -952,13 +957,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45908.4322429051</x:v>
@@ -984,13 +989,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45907.4200832176</x:v>
@@ -1016,13 +1021,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45907.6656269329</x:v>
@@ -1048,13 +1053,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45907.6670037847</x:v>
@@ -1080,13 +1085,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45908.4153628819</x:v>
@@ -1112,13 +1117,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45907.665765081</x:v>
@@ -1144,13 +1149,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45908.4174532407</x:v>
@@ -1176,13 +1181,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45919.9609886227</x:v>
@@ -1208,13 +1213,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45908.4172006134</x:v>
@@ -1240,13 +1245,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45914.4516988426</x:v>
@@ -1272,13 +1277,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.665162963</x:v>
@@ -1304,13 +1309,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45919.4339732639</x:v>
@@ -1336,13 +1341,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45918.8002249653</x:v>
@@ -1368,13 +1373,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45908.5756681713</x:v>
@@ -1400,13 +1405,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45908.4154959491</x:v>
@@ -1432,13 +1437,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45920.7941861458</x:v>
@@ -1464,13 +1469,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45908.4178317477</x:v>
@@ -1496,13 +1501,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45914.5086548611</x:v>
@@ -1528,13 +1533,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6653482639</x:v>
@@ -1560,13 +1565,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6652585301</x:v>
@@ -1592,13 +1597,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45917.3417125</x:v>
@@ -1624,13 +1629,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45908.4149094097</x:v>
@@ -1656,13 +1661,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6977840278</x:v>
@@ -1688,13 +1693,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45908.4150593403</x:v>
@@ -1720,13 +1725,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45909.492018669</x:v>
@@ -1752,13 +1757,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45908.4147947569</x:v>
@@ -1784,13 +1789,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45908.4148716782</x:v>
@@ -1816,13 +1821,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45908.4160849537</x:v>
@@ -1848,13 +1853,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45908.4421759606</x:v>
@@ -1880,13 +1885,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45919.7435106829</x:v>
@@ -1912,13 +1917,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45920.7897603356</x:v>
@@ -1944,13 +1949,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45920.7935459838</x:v>
@@ -1976,13 +1981,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45917.311553206</x:v>
@@ -2008,13 +2013,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6687487269</x:v>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Hani Al-Sayed Mohamed Shaheen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسلام عمرو احمد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islam Amr Ahmed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>4250206</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -934,7 +943,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45925.2543621528</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -966,7 +975,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -998,7 +1007,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +1039,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1071,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1103,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1135,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1167,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1199,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1231,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.7941861458</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45920.7897603356</x:v>
+        <x:v>45919.7435106829</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.7935459838</x:v>
+        <x:v>45920.7897603356</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45920.7935459838</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -285,6 +285,15 @@
     <x:t>Mahmoud Tamer Mohammed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد رامى محمود غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
+  </x:si>
+  <x:si>
     <x:t>2250004</x:t>
   </x:si>
   <x:si>
@@ -328,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام طارق احمد عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4250199</x:t>
@@ -1775,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45927.5772409375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45919.7435106829</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Ezzat Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -488,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -911,7 +920,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45935.4908036227</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -943,7 +952,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45925.2543621528</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -975,7 +984,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45925.2543621528</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1007,7 +1016,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4322429051</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1039,7 +1048,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4200832176</x:v>
+        <x:v>45908.4322429051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1071,7 +1080,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4200832176</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1103,7 +1112,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1135,7 +1144,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153628819</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1167,7 +1176,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45908.4153628819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4172006134</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.4516988426</x:v>
+        <x:v>45908.4172006134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.4516988426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.5756681713</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45908.5756681713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.7941861458</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4178317477</x:v>
+        <x:v>45920.7941861458</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5086548611</x:v>
+        <x:v>45908.4178317477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6653482639</x:v>
+        <x:v>45914.5086548611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6653482639</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4150593403</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.5772409375</x:v>
+        <x:v>45908.4150593403</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45927.5772409375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4147947569</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4148716782</x:v>
+        <x:v>45908.4147947569</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4160849537</x:v>
+        <x:v>45908.4148716782</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4421759606</x:v>
+        <x:v>45908.4160849537</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.7897603356</x:v>
+        <x:v>45908.4421759606</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.7935459838</x:v>
+        <x:v>45920.7897603356</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45920.7935459838</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2089,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35642.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35642.xlsx
@@ -336,7 +336,7 @@
     <x:t>مينا ميلاد فانوس اسحق</x:t>
   </x:si>
   <x:si>
-    <x:t>Mena Melad Fanous Isaac</x:t>
+    <x:t>Mina Milad Fanous Isaac</x:t>
   </x:si>
   <x:si>
     <x:t>1240159</x:t>
